--- a/biology/Zoologie/Bolitoglossa_minutula/Bolitoglossa_minutula.xlsx
+++ b/biology/Zoologie/Bolitoglossa_minutula/Bolitoglossa_minutula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa minutula est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa minutula est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de la cordillère de Talamanca. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de la cordillère de Talamanca. Elle se rencontre :
 entre 1 810 et 2 660 m d'altitude dans l'Ouest du Panama ;
 entre 1 670 et 2 100 m d'altitude dans l'Est du Costa Rica.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa minutula mesure de 54 à 76 mm de longueur totale dont environ la moitié pour la queue. Les mâles mesurent sans la queue de 28 à 36 mm et les femelles de 30 à 37 mm. Son dos peut être entièrement noir ou brun foncé ou être orange terne. Son ventre est noir, brun foncé ou brun foncé tacheté de jaune[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa minutula mesure de 54 à 76 mm de longueur totale dont environ la moitié pour la queue. Les mâles mesurent sans la queue de 28 à 36 mm et les femelles de 30 à 37 mm. Son dos peut être entièrement noir ou brun foncé ou être orange terne. Son ventre est noir, brun foncé ou brun foncé tacheté de jaune.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique minutula vient du latin minutulus, très petit, en référence à la taille de cette espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique minutula vient du latin minutulus, très petit, en référence à la taille de cette espèce.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wake, Brame &amp; Duellman, 1973 : New species of salamanders, genus Bolitoglossa, from Panama. Contributions in Science. Natural History Museum of Los Angeles County, no 248, p. 1-19 (texte intégral).</t>
         </is>
